--- a/covid-19-teacher-vaccination.xlsx
+++ b/covid-19-teacher-vaccination.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/TEACHER DATA/Vaccination/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolcavallari/Github/Assignments fall 21:22/Final-Work-Data-Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD10293C-35AA-4045-8579-0FD83C3DA3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B5F62D-DAE9-1541-BF22-642852C79182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{5C5816EC-52B9-4D8E-9C2A-00E2AD07D3E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" xr2:uid="{5C5816EC-52B9-4D8E-9C2A-00E2AD07D3E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$F$212</definedName>
@@ -883,8 +884,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -898,6 +897,8 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1216,7 +1217,7 @@
   <dimension ref="B2:I281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E29" sqref="E29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1295,7 +1296,7 @@
       <c r="F5" s="16">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="27">
         <v>44455</v>
       </c>
     </row>
@@ -1371,7 +1372,7 @@
       <c r="F10" s="15">
         <v>0.48</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="28">
         <v>44440</v>
       </c>
     </row>
@@ -1437,7 +1438,7 @@
       <c r="F14" s="16">
         <v>0.82</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="27">
         <v>44448</v>
       </c>
       <c r="H14" s="6"/>
@@ -1459,7 +1460,7 @@
       <c r="F15" s="16">
         <v>0.63</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="27">
         <v>44455</v>
       </c>
       <c r="H15" s="9"/>
@@ -1527,7 +1528,7 @@
         <v>229</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="29">
+      <c r="G19" s="27">
         <v>44308</v>
       </c>
       <c r="H19" s="5"/>
@@ -1643,7 +1644,7 @@
         <v>0.93</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="29">
+      <c r="G26" s="27">
         <v>44409</v>
       </c>
       <c r="H26" s="5"/>
@@ -1663,7 +1664,7 @@
       <c r="F27" s="16">
         <v>0.47</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="27">
         <v>44449</v>
       </c>
       <c r="H27" s="5"/>
@@ -1747,7 +1748,7 @@
       <c r="F32" s="16">
         <v>0.3</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="27">
         <v>44456</v>
       </c>
       <c r="H32" s="6"/>
@@ -1799,7 +1800,7 @@
         <v>0.64</v>
       </c>
       <c r="F35" s="18"/>
-      <c r="G35" s="31">
+      <c r="G35" s="29">
         <v>44444</v>
       </c>
       <c r="H35" s="6"/>
@@ -1819,7 +1820,7 @@
       <c r="F36" s="17">
         <v>0.95</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="29">
         <v>44456</v>
       </c>
       <c r="H36" s="6"/>
@@ -1919,7 +1920,7 @@
       <c r="F42" s="15">
         <v>1</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="28">
         <v>44474</v>
       </c>
       <c r="H42" s="6"/>
@@ -1955,7 +1956,7 @@
       <c r="F44" s="15">
         <v>0.9</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G44" s="28">
         <v>44474</v>
       </c>
       <c r="H44" s="6"/>
@@ -2023,7 +2024,7 @@
         <v>0.96689999999999998</v>
       </c>
       <c r="F48" s="19"/>
-      <c r="G48" s="30">
+      <c r="G48" s="28">
         <v>44440</v>
       </c>
       <c r="H48" s="6"/>
@@ -2059,7 +2060,7 @@
       <c r="F50" s="15">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G50" s="30">
+      <c r="G50" s="28">
         <v>44440</v>
       </c>
       <c r="H50" s="6"/>
@@ -2113,7 +2114,7 @@
       <c r="F53" s="15">
         <v>0.79</v>
       </c>
-      <c r="G53" s="30">
+      <c r="G53" s="28">
         <v>44456</v>
       </c>
       <c r="H53" s="6"/>
@@ -2229,7 +2230,7 @@
       <c r="F60" s="16">
         <v>1</v>
       </c>
-      <c r="G60" s="29">
+      <c r="G60" s="27">
         <v>44354</v>
       </c>
       <c r="H60" s="7"/>
@@ -2251,7 +2252,7 @@
       <c r="F61" s="15">
         <v>0.8</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="28">
         <v>44440</v>
       </c>
     </row>
@@ -2339,7 +2340,7 @@
       <c r="F67" s="16">
         <v>0.5</v>
       </c>
-      <c r="G67" s="29">
+      <c r="G67" s="27">
         <v>44455</v>
       </c>
     </row>
@@ -2415,7 +2416,7 @@
       <c r="F72" s="16">
         <v>0.78</v>
       </c>
-      <c r="G72" s="29">
+      <c r="G72" s="27">
         <v>44424</v>
       </c>
     </row>
@@ -2463,7 +2464,7 @@
       <c r="F75" s="17">
         <v>0.36</v>
       </c>
-      <c r="G75" s="31">
+      <c r="G75" s="29">
         <v>44446</v>
       </c>
     </row>
@@ -2575,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="2"/>
-      <c r="G82" s="29">
+      <c r="G82" s="27">
         <v>44474</v>
       </c>
       <c r="H82" s="6"/>
@@ -2594,8 +2595,8 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
     </row>
     <row r="84" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
@@ -2610,8 +2611,8 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
     </row>
     <row r="85" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
@@ -2627,11 +2628,11 @@
       <c r="F85" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="G85" s="29">
+      <c r="G85" s="27">
         <v>44441</v>
       </c>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
     </row>
     <row r="86" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
@@ -2663,7 +2664,7 @@
       <c r="F87" s="16">
         <v>0.4</v>
       </c>
-      <c r="G87" s="29">
+      <c r="G87" s="27">
         <v>44419</v>
       </c>
       <c r="H87" s="6"/>
@@ -2715,7 +2716,7 @@
         <v>0.8</v>
       </c>
       <c r="F90" s="2"/>
-      <c r="G90" s="29">
+      <c r="G90" s="27">
         <v>44453</v>
       </c>
       <c r="H90" s="6"/>
@@ -2737,7 +2738,7 @@
       <c r="F91" s="16">
         <v>0.39</v>
       </c>
-      <c r="G91" s="29">
+      <c r="G91" s="27">
         <v>44448</v>
       </c>
       <c r="H91" s="6"/>
@@ -2759,7 +2760,7 @@
       <c r="F92" s="17">
         <v>0.7</v>
       </c>
-      <c r="G92" s="31">
+      <c r="G92" s="29">
         <v>44456</v>
       </c>
       <c r="H92" s="8"/>
@@ -2829,7 +2830,7 @@
       <c r="F96" s="16">
         <v>0.86</v>
       </c>
-      <c r="G96" s="29">
+      <c r="G96" s="27">
         <v>44443</v>
       </c>
       <c r="H96" s="6"/>
@@ -2865,7 +2866,7 @@
       <c r="F98" s="16">
         <v>0.62</v>
       </c>
-      <c r="G98" s="29">
+      <c r="G98" s="27">
         <v>44438</v>
       </c>
       <c r="H98" s="6"/>
@@ -2917,7 +2918,7 @@
         <v>0.33</v>
       </c>
       <c r="F101" s="3"/>
-      <c r="G101" s="32">
+      <c r="G101" s="30">
         <v>44349</v>
       </c>
       <c r="H101" s="6"/>
@@ -3145,7 +3146,7 @@
       <c r="F116" s="16">
         <v>0.88700000000000001</v>
       </c>
-      <c r="G116" s="29">
+      <c r="G116" s="27">
         <v>44454</v>
       </c>
       <c r="H116" s="6"/>
@@ -3229,7 +3230,7 @@
       <c r="F121" s="17">
         <v>0.8</v>
       </c>
-      <c r="G121" s="31">
+      <c r="G121" s="29">
         <v>44455</v>
       </c>
       <c r="H121" s="6"/>
@@ -3265,7 +3266,7 @@
         <v>0.9</v>
       </c>
       <c r="F123" s="19"/>
-      <c r="G123" s="30">
+      <c r="G123" s="28">
         <v>44440</v>
       </c>
       <c r="H123" s="8"/>
@@ -3319,7 +3320,7 @@
       <c r="F126" s="17">
         <v>0.42520000000000002</v>
       </c>
-      <c r="G126" s="31">
+      <c r="G126" s="29">
         <v>44456</v>
       </c>
       <c r="H126" s="8"/>
@@ -3371,7 +3372,7 @@
       <c r="F129" s="17">
         <v>0.99</v>
       </c>
-      <c r="G129" s="31">
+      <c r="G129" s="29">
         <v>44455</v>
       </c>
     </row>
@@ -3459,7 +3460,7 @@
       <c r="F135" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="G135" s="29">
+      <c r="G135" s="27">
         <v>44448</v>
       </c>
     </row>
@@ -3552,7 +3553,7 @@
       <c r="F141" s="16">
         <v>0.62</v>
       </c>
-      <c r="G141" s="29">
+      <c r="G141" s="27">
         <v>44449</v>
       </c>
       <c r="H141" s="22"/>
@@ -3586,7 +3587,7 @@
       <c r="F143" s="16">
         <v>0.871</v>
       </c>
-      <c r="G143" s="29">
+      <c r="G143" s="27">
         <v>44461</v>
       </c>
       <c r="H143" s="9"/>
@@ -3638,7 +3639,7 @@
       <c r="F146" s="17">
         <v>0.98429999999999995</v>
       </c>
-      <c r="G146" s="31">
+      <c r="G146" s="29">
         <v>44455</v>
       </c>
       <c r="H146" s="9"/>
@@ -3710,7 +3711,7 @@
       <c r="F150" s="16">
         <v>0.65</v>
       </c>
-      <c r="G150" s="29">
+      <c r="G150" s="27">
         <v>44452</v>
       </c>
       <c r="H150" s="9"/>
@@ -3732,7 +3733,7 @@
       <c r="F151" s="16">
         <v>0.40460000000000002</v>
       </c>
-      <c r="G151" s="29">
+      <c r="G151" s="27">
         <v>44411</v>
       </c>
       <c r="H151" s="9"/>
@@ -3768,7 +3769,7 @@
       <c r="F153" s="17">
         <v>0.99</v>
       </c>
-      <c r="G153" s="31">
+      <c r="G153" s="29">
         <v>44455</v>
       </c>
       <c r="H153" s="6"/>
@@ -3788,7 +3789,7 @@
       <c r="F154" s="17">
         <v>0.95199999999999996</v>
       </c>
-      <c r="G154" s="31">
+      <c r="G154" s="29">
         <v>44459</v>
       </c>
       <c r="H154" s="6"/>
@@ -3964,7 +3965,7 @@
       <c r="F166" s="16">
         <v>0.92</v>
       </c>
-      <c r="G166" s="29">
+      <c r="G166" s="27">
         <v>44414</v>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       <c r="F168" s="16">
         <v>0.5</v>
       </c>
-      <c r="G168" s="29">
+      <c r="G168" s="27">
         <v>44449</v>
       </c>
     </row>
@@ -4112,7 +4113,7 @@
         <v>0.37</v>
       </c>
       <c r="F176" s="2"/>
-      <c r="G176" s="29">
+      <c r="G176" s="27">
         <v>44327</v>
       </c>
     </row>
@@ -4130,7 +4131,7 @@
       <c r="F177" s="15">
         <v>0.89</v>
       </c>
-      <c r="G177" s="30">
+      <c r="G177" s="28">
         <v>44469</v>
       </c>
     </row>
@@ -4300,7 +4301,7 @@
       <c r="F188" s="17">
         <v>0.7</v>
       </c>
-      <c r="G188" s="31">
+      <c r="G188" s="29">
         <v>44461</v>
       </c>
       <c r="H188" s="6"/>
@@ -4468,7 +4469,7 @@
       <c r="F199" s="15">
         <v>0.1636</v>
       </c>
-      <c r="G199" s="30">
+      <c r="G199" s="28">
         <v>44461</v>
       </c>
     </row>
@@ -4500,7 +4501,7 @@
       <c r="F201" s="16">
         <v>0.89500000000000002</v>
       </c>
-      <c r="G201" s="29">
+      <c r="G201" s="27">
         <v>44446</v>
       </c>
     </row>
@@ -4560,7 +4561,7 @@
       <c r="F205" s="16">
         <v>0.71</v>
       </c>
-      <c r="G205" s="29">
+      <c r="G205" s="27">
         <v>44409</v>
       </c>
     </row>
@@ -4606,7 +4607,7 @@
         <v>0.12</v>
       </c>
       <c r="F208" s="2"/>
-      <c r="G208" s="29">
+      <c r="G208" s="27">
         <v>44435</v>
       </c>
       <c r="H208" s="6"/>
@@ -4687,7 +4688,7 @@
       <c r="I213" s="6"/>
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B214" s="28" t="s">
+      <c r="B214" s="26" t="s">
         <v>230</v>
       </c>
       <c r="C214" s="4"/>
@@ -4749,12 +4750,12 @@
       <c r="I219" s="6"/>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H220" s="26"/>
-      <c r="I220" s="26"/>
+      <c r="H220" s="32"/>
+      <c r="I220" s="32"/>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H221" s="26"/>
-      <c r="I221" s="26"/>
+      <c r="H221" s="32"/>
+      <c r="I221" s="32"/>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H222" s="6"/>
@@ -4789,40 +4790,40 @@
       <c r="I229" s="9"/>
     </row>
     <row r="230" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H230" s="26"/>
-      <c r="I230" s="26"/>
+      <c r="H230" s="32"/>
+      <c r="I230" s="32"/>
     </row>
     <row r="231" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H231" s="26"/>
-      <c r="I231" s="26"/>
+      <c r="H231" s="32"/>
+      <c r="I231" s="32"/>
     </row>
     <row r="232" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H232" s="26"/>
-      <c r="I232" s="26"/>
+      <c r="H232" s="32"/>
+      <c r="I232" s="32"/>
     </row>
     <row r="233" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H233" s="26"/>
-      <c r="I233" s="26"/>
+      <c r="H233" s="32"/>
+      <c r="I233" s="32"/>
     </row>
     <row r="234" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H234" s="26"/>
-      <c r="I234" s="26"/>
+      <c r="H234" s="32"/>
+      <c r="I234" s="32"/>
     </row>
     <row r="235" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H235" s="26"/>
-      <c r="I235" s="26"/>
+      <c r="H235" s="32"/>
+      <c r="I235" s="32"/>
     </row>
     <row r="236" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H236" s="26"/>
-      <c r="I236" s="26"/>
+      <c r="H236" s="32"/>
+      <c r="I236" s="32"/>
     </row>
     <row r="237" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H237" s="26"/>
-      <c r="I237" s="26"/>
+      <c r="H237" s="32"/>
+      <c r="I237" s="32"/>
     </row>
     <row r="238" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H238" s="26"/>
-      <c r="I238" s="26"/>
+      <c r="H238" s="32"/>
+      <c r="I238" s="32"/>
     </row>
     <row r="239" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H239" s="6"/>
@@ -4910,15 +4911,15 @@
     </row>
     <row r="260" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H260" s="6"/>
-      <c r="I260" s="27"/>
+      <c r="I260" s="31"/>
     </row>
     <row r="261" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H261" s="6"/>
-      <c r="I261" s="27"/>
+      <c r="I261" s="31"/>
     </row>
     <row r="262" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H262" s="6"/>
-      <c r="I262" s="27"/>
+      <c r="I262" s="31"/>
     </row>
     <row r="263" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H263" s="6"/>
@@ -4961,12 +4962,12 @@
       <c r="I272" s="6"/>
     </row>
     <row r="273" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H273" s="26"/>
-      <c r="I273" s="26"/>
+      <c r="H273" s="32"/>
+      <c r="I273" s="32"/>
     </row>
     <row r="274" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H274" s="26"/>
-      <c r="I274" s="26"/>
+      <c r="H274" s="32"/>
+      <c r="I274" s="32"/>
     </row>
     <row r="275" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H275" s="6"/>
@@ -4974,11 +4975,11 @@
     </row>
     <row r="276" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H276" s="9"/>
-      <c r="I276" s="27"/>
+      <c r="I276" s="31"/>
     </row>
     <row r="277" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H277" s="9"/>
-      <c r="I277" s="27"/>
+      <c r="I277" s="31"/>
     </row>
     <row r="278" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H278" s="4"/>
@@ -4999,18 +5000,30 @@
   </sheetData>
   <autoFilter ref="B2:F212" xr:uid="{45554874-2BC7-4AF4-A923-6AAFB12BF826}"/>
   <mergeCells count="10">
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="H273:H274"/>
+    <mergeCell ref="I273:I274"/>
     <mergeCell ref="I276:I277"/>
     <mergeCell ref="H220:H221"/>
     <mergeCell ref="I220:I221"/>
     <mergeCell ref="H230:H238"/>
     <mergeCell ref="I230:I238"/>
     <mergeCell ref="I260:I262"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="H273:H274"/>
-    <mergeCell ref="I273:I274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C0E887-6665-8443-AF40-1C771A538E0A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/covid-19-teacher-vaccination.xlsx
+++ b/covid-19-teacher-vaccination.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolcavallari/Github/Assignments fall 21:22/Final-Work-Data-Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B5F62D-DAE9-1541-BF22-642852C79182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E405B041-E3EF-C447-A2A2-F24406BFAE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" xr2:uid="{5C5816EC-52B9-4D8E-9C2A-00E2AD07D3E9}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="232">
   <si>
     <t>Country</t>
   </si>
@@ -103,631 +103,628 @@
     <t>Bhutan</t>
   </si>
   <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Democratic People's Republic of Korea</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>Republic of Moldova</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Marteen</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Island</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher prioritization in vaccination plans </t>
+  </si>
+  <si>
+    <t>% of teachers fully vaccinated</t>
+  </si>
+  <si>
+    <t>Central and Southern Asia</t>
+  </si>
+  <si>
+    <t>Europe and Northern America</t>
+  </si>
+  <si>
+    <t>Northern Africa and Western Asia</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Latin America and the Caribbean</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Eastern and South-Eastern Asia</t>
+  </si>
+  <si>
+    <t>% of teachers with at least one dosis</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>Group 2</t>
+  </si>
+  <si>
+    <t>Group 3 or lower</t>
+  </si>
+  <si>
+    <t>Not specified</t>
+  </si>
+  <si>
+    <t>90%*</t>
+  </si>
+  <si>
+    <t>* Unclear if the figure represents fully or partially vaccinated teachers</t>
+  </si>
+  <si>
+    <t>50%*</t>
+  </si>
+  <si>
+    <t>Vaccination data reference date</t>
+  </si>
+  <si>
+    <t>No available data</t>
+  </si>
+  <si>
+    <t>Not prioritised in any group</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
     <t>Bolivia (Plurinational State of)</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Curaçao</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czechia</t>
-  </si>
-  <si>
-    <t>Democratic People's Republic of Korea</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Republic of)</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Lao PDR</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia (Federated States of)</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of Korea</t>
-  </si>
-  <si>
-    <t>Republic of Moldova</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Sint Marteen</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Island</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom of Great Britain and Northern Ireland</t>
-  </si>
-  <si>
-    <t>United Republic of Tanzania</t>
-  </si>
-  <si>
-    <t>United States of America</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teacher prioritization in vaccination plans </t>
-  </si>
-  <si>
-    <t>Not prioritised</t>
-  </si>
-  <si>
-    <t>% of teachers fully vaccinated</t>
-  </si>
-  <si>
-    <t>Central and Southern Asia</t>
-  </si>
-  <si>
-    <t>Europe and Northern America</t>
-  </si>
-  <si>
-    <t>Northern Africa and Western Asia</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t>Latin America and the Caribbean</t>
-  </si>
-  <si>
-    <t>Oceania</t>
-  </si>
-  <si>
-    <t>Eastern and South-Eastern Asia</t>
-  </si>
-  <si>
-    <t>% of teachers with at least one dosis</t>
-  </si>
-  <si>
-    <t>Group 1</t>
-  </si>
-  <si>
-    <t>Group 2</t>
-  </si>
-  <si>
-    <t>Group 3 or lower</t>
-  </si>
-  <si>
-    <t>Not specified</t>
-  </si>
-  <si>
-    <t>No data</t>
-  </si>
-  <si>
-    <t>Not data</t>
-  </si>
-  <si>
-    <t>90%*</t>
-  </si>
-  <si>
-    <t>* Unclear if the figure represents fully or partially vaccinated teachers</t>
-  </si>
-  <si>
-    <t>50%*</t>
-  </si>
-  <si>
-    <t>Vaccination data reference date</t>
   </si>
 </sst>
 </file>
@@ -835,7 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -897,8 +894,9 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1216,15 +1214,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45554874-2BC7-4AF4-A923-6AAFB12BF826}">
   <dimension ref="B2:I281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:G29"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="33.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="7" width="21.5" customWidth="1"/>
@@ -1236,33 +1234,33 @@
   <sheetData>
     <row r="2" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1270,13 +1268,13 @@
     </row>
     <row r="4" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1284,13 +1282,13 @@
     </row>
     <row r="5" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="16">
@@ -1302,13 +1300,13 @@
     </row>
     <row r="6" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1316,13 +1314,13 @@
     </row>
     <row r="7" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1330,13 +1328,13 @@
     </row>
     <row r="8" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1344,13 +1342,13 @@
     </row>
     <row r="9" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1358,13 +1356,13 @@
     </row>
     <row r="10" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E10" s="15">
         <v>0.7</v>
@@ -1378,13 +1376,13 @@
     </row>
     <row r="11" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1394,13 +1392,13 @@
     </row>
     <row r="12" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1410,13 +1408,13 @@
     </row>
     <row r="13" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1426,13 +1424,13 @@
     </row>
     <row r="14" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16">
@@ -1446,13 +1444,13 @@
     </row>
     <row r="15" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E15" s="16">
         <v>0.82</v>
@@ -1468,13 +1466,13 @@
     </row>
     <row r="16" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -1484,13 +1482,13 @@
     </row>
     <row r="17" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1500,13 +1498,13 @@
     </row>
     <row r="18" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1516,16 +1514,16 @@
     </row>
     <row r="19" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>229</v>
+        <v>219</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.9</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="27">
@@ -1536,13 +1534,13 @@
     </row>
     <row r="20" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1552,13 +1550,13 @@
     </row>
     <row r="21" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1568,13 +1566,13 @@
     </row>
     <row r="22" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1584,13 +1582,13 @@
     </row>
     <row r="23" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1600,13 +1598,13 @@
     </row>
     <row r="24" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1616,13 +1614,13 @@
     </row>
     <row r="25" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1632,13 +1630,13 @@
     </row>
     <row r="26" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E26" s="16">
         <v>0.93</v>
@@ -1652,13 +1650,13 @@
     </row>
     <row r="27" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="16">
@@ -1672,13 +1670,13 @@
     </row>
     <row r="28" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1688,13 +1686,13 @@
     </row>
     <row r="29" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1704,13 +1702,13 @@
     </row>
     <row r="30" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1720,13 +1718,13 @@
     </row>
     <row r="31" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1736,13 +1734,13 @@
     </row>
     <row r="32" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="16">
@@ -1756,13 +1754,13 @@
     </row>
     <row r="33" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1772,13 +1770,13 @@
     </row>
     <row r="34" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1788,13 +1786,13 @@
     </row>
     <row r="35" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E35" s="17">
         <v>0.64</v>
@@ -1808,13 +1806,13 @@
     </row>
     <row r="36" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="17">
@@ -1828,13 +1826,13 @@
     </row>
     <row r="37" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1844,13 +1842,13 @@
     </row>
     <row r="38" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1860,13 +1858,13 @@
     </row>
     <row r="39" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1876,13 +1874,13 @@
     </row>
     <row r="40" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
@@ -1892,13 +1890,13 @@
     </row>
     <row r="41" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
@@ -1908,13 +1906,13 @@
     </row>
     <row r="42" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="15">
@@ -1928,13 +1926,13 @@
     </row>
     <row r="43" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
@@ -1944,13 +1942,13 @@
     </row>
     <row r="44" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15">
@@ -1964,13 +1962,13 @@
     </row>
     <row r="45" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
@@ -1980,13 +1978,13 @@
     </row>
     <row r="46" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
@@ -1996,13 +1994,13 @@
     </row>
     <row r="47" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
@@ -2012,13 +2010,13 @@
     </row>
     <row r="48" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E48" s="15">
         <v>0.96689999999999998</v>
@@ -2032,13 +2030,13 @@
     </row>
     <row r="49" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
@@ -2048,13 +2046,13 @@
     </row>
     <row r="50" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="15">
@@ -2068,13 +2066,13 @@
     </row>
     <row r="51" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
@@ -2084,13 +2082,13 @@
     </row>
     <row r="52" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
@@ -2100,13 +2098,13 @@
     </row>
     <row r="53" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E53" s="15">
         <v>0.81499999999999995</v>
@@ -2122,13 +2120,13 @@
     </row>
     <row r="54" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
@@ -2138,13 +2136,13 @@
     </row>
     <row r="55" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
@@ -2154,13 +2152,13 @@
     </row>
     <row r="56" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="19"/>
@@ -2170,13 +2168,13 @@
     </row>
     <row r="57" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
@@ -2186,13 +2184,13 @@
     </row>
     <row r="58" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
@@ -2202,13 +2200,13 @@
     </row>
     <row r="59" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
@@ -2218,13 +2216,13 @@
     </row>
     <row r="60" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="16">
@@ -2238,13 +2236,13 @@
     </row>
     <row r="61" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E61" s="15">
         <v>0.9</v>
@@ -2258,13 +2256,13 @@
     </row>
     <row r="62" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -2272,13 +2270,13 @@
     </row>
     <row r="63" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2286,13 +2284,13 @@
     </row>
     <row r="64" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -2300,13 +2298,13 @@
     </row>
     <row r="65" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
@@ -2314,13 +2312,13 @@
     </row>
     <row r="66" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -2328,13 +2326,13 @@
     </row>
     <row r="67" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="16">
@@ -2346,13 +2344,13 @@
     </row>
     <row r="68" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -2360,13 +2358,13 @@
     </row>
     <row r="69" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -2374,13 +2372,13 @@
     </row>
     <row r="70" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -2388,13 +2386,13 @@
     </row>
     <row r="71" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -2402,13 +2400,13 @@
     </row>
     <row r="72" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E72" s="16">
         <v>0.87</v>
@@ -2422,13 +2420,13 @@
     </row>
     <row r="73" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -2436,13 +2434,13 @@
     </row>
     <row r="74" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>218</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>225</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -2450,13 +2448,13 @@
     </row>
     <row r="75" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>224</v>
       </c>
       <c r="E75" s="17">
         <v>0.57999999999999996</v>
@@ -2470,13 +2468,13 @@
     </row>
     <row r="76" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -2484,13 +2482,13 @@
     </row>
     <row r="77" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -2500,13 +2498,13 @@
     </row>
     <row r="78" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -2516,13 +2514,13 @@
     </row>
     <row r="79" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -2532,13 +2530,13 @@
     </row>
     <row r="80" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -2548,13 +2546,13 @@
     </row>
     <row r="81" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -2564,13 +2562,13 @@
     </row>
     <row r="82" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E82" s="16">
         <v>1</v>
@@ -2584,13 +2582,13 @@
     </row>
     <row r="83" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -2600,13 +2598,13 @@
     </row>
     <row r="84" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -2616,17 +2614,17 @@
     </row>
     <row r="85" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="16" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G85" s="27">
         <v>44441</v>
@@ -2636,13 +2634,13 @@
     </row>
     <row r="86" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -2652,13 +2650,13 @@
     </row>
     <row r="87" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="16">
@@ -2672,13 +2670,13 @@
     </row>
     <row r="88" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -2688,13 +2686,13 @@
     </row>
     <row r="89" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -2704,13 +2702,13 @@
     </row>
     <row r="90" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E90" s="16">
         <v>0.8</v>
@@ -2724,13 +2722,13 @@
     </row>
     <row r="91" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E91" s="16">
         <v>0.6</v>
@@ -2746,13 +2744,13 @@
     </row>
     <row r="92" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E92" s="17">
         <v>0.92</v>
@@ -2768,13 +2766,13 @@
     </row>
     <row r="93" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -2784,13 +2782,13 @@
     </row>
     <row r="94" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -2800,13 +2798,13 @@
     </row>
     <row r="95" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -2816,13 +2814,13 @@
     </row>
     <row r="96" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E96" s="16">
         <v>0.92</v>
@@ -2838,13 +2836,13 @@
     </row>
     <row r="97" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -2854,13 +2852,13 @@
     </row>
     <row r="98" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="16">
@@ -2874,13 +2872,13 @@
     </row>
     <row r="99" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -2890,13 +2888,13 @@
     </row>
     <row r="100" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -2906,13 +2904,13 @@
     </row>
     <row r="101" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E101" s="16">
         <v>0.33</v>
@@ -2926,13 +2924,13 @@
     </row>
     <row r="102" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>227</v>
+        <v>97</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>224</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -2942,13 +2940,13 @@
     </row>
     <row r="103" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -2958,13 +2956,13 @@
     </row>
     <row r="104" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -2974,13 +2972,13 @@
     </row>
     <row r="105" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C105" s="21" t="s">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E105" s="18"/>
       <c r="F105" s="18"/>
@@ -2990,13 +2988,13 @@
     </row>
     <row r="106" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C106" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E106" s="18"/>
       <c r="F106" s="18"/>
@@ -3006,13 +3004,13 @@
     </row>
     <row r="107" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D107" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="C107" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D107" s="21" t="s">
-        <v>224</v>
       </c>
       <c r="E107" s="18"/>
       <c r="F107" s="18"/>
@@ -3020,13 +3018,13 @@
     </row>
     <row r="108" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="18"/>
@@ -3034,13 +3032,13 @@
     </row>
     <row r="109" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="18"/>
@@ -3048,13 +3046,13 @@
     </row>
     <row r="110" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E110" s="18"/>
       <c r="F110" s="18"/>
@@ -3062,13 +3060,13 @@
     </row>
     <row r="111" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D111" s="21" t="s">
-        <v>228</v>
+        <v>105</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>224</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -3076,13 +3074,13 @@
     </row>
     <row r="112" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -3090,13 +3088,13 @@
     </row>
     <row r="113" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -3104,13 +3102,13 @@
     </row>
     <row r="114" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -3118,13 +3116,13 @@
     </row>
     <row r="115" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -3132,13 +3130,13 @@
     </row>
     <row r="116" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E116" s="16">
         <v>0.9748</v>
@@ -3154,13 +3152,13 @@
     </row>
     <row r="117" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -3170,13 +3168,13 @@
     </row>
     <row r="118" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -3186,13 +3184,13 @@
     </row>
     <row r="119" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -3202,13 +3200,13 @@
     </row>
     <row r="120" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -3218,13 +3216,13 @@
     </row>
     <row r="121" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E121" s="18"/>
       <c r="F121" s="17">
@@ -3238,13 +3236,13 @@
     </row>
     <row r="122" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E122" s="18"/>
       <c r="F122" s="18"/>
@@ -3254,13 +3252,13 @@
     </row>
     <row r="123" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E123" s="15">
         <v>0.9</v>
@@ -3274,13 +3272,13 @@
     </row>
     <row r="124" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D124" s="21" t="s">
-        <v>227</v>
+        <v>118</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>224</v>
       </c>
       <c r="E124" s="18"/>
       <c r="F124" s="18"/>
@@ -3290,13 +3288,13 @@
     </row>
     <row r="125" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E125" s="18"/>
       <c r="F125" s="18"/>
@@ -3306,13 +3304,13 @@
     </row>
     <row r="126" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E126" s="17">
         <v>0.60709999999999997</v>
@@ -3328,13 +3326,13 @@
     </row>
     <row r="127" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E127" s="18"/>
       <c r="F127" s="18"/>
@@ -3344,13 +3342,13 @@
     </row>
     <row r="128" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E128" s="18"/>
       <c r="F128" s="18"/>
@@ -3360,13 +3358,13 @@
     </row>
     <row r="129" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E129" s="18"/>
       <c r="F129" s="17">
@@ -3378,13 +3376,13 @@
     </row>
     <row r="130" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -3392,13 +3390,13 @@
     </row>
     <row r="131" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -3406,13 +3404,13 @@
     </row>
     <row r="132" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -3420,13 +3418,13 @@
     </row>
     <row r="133" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -3434,13 +3432,13 @@
     </row>
     <row r="134" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -3448,17 +3446,17 @@
     </row>
     <row r="135" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="16" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G135" s="27">
         <v>44448</v>
@@ -3466,13 +3464,13 @@
     </row>
     <row r="136" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -3481,13 +3479,13 @@
     </row>
     <row r="137" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -3496,13 +3494,13 @@
     </row>
     <row r="138" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -3511,13 +3509,13 @@
     </row>
     <row r="139" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -3526,13 +3524,13 @@
     </row>
     <row r="140" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D140" s="21" t="s">
-        <v>227</v>
+        <v>134</v>
+      </c>
+      <c r="D140" s="31" t="s">
+        <v>224</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -3541,13 +3539,13 @@
     </row>
     <row r="141" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="16">
@@ -3560,13 +3558,13 @@
     </row>
     <row r="142" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="16"/>
@@ -3575,13 +3573,13 @@
     </row>
     <row r="143" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E143" s="16"/>
       <c r="F143" s="16">
@@ -3595,13 +3593,13 @@
     </row>
     <row r="144" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -3611,13 +3609,13 @@
     </row>
     <row r="145" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D145" s="21" t="s">
-        <v>227</v>
+        <v>139</v>
+      </c>
+      <c r="D145" s="31" t="s">
+        <v>224</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -3627,13 +3625,13 @@
     </row>
     <row r="146" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E146" s="18"/>
       <c r="F146" s="17">
@@ -3647,13 +3645,13 @@
     </row>
     <row r="147" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E147" s="15"/>
       <c r="F147" s="15">
@@ -3665,13 +3663,13 @@
     </row>
     <row r="148" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -3681,13 +3679,13 @@
     </row>
     <row r="149" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -3697,13 +3695,13 @@
     </row>
     <row r="150" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E150" s="16">
         <v>0.82</v>
@@ -3719,13 +3717,13 @@
     </row>
     <row r="151" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E151" s="16">
         <v>0.40339999999999998</v>
@@ -3741,13 +3739,13 @@
     </row>
     <row r="152" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -3757,13 +3755,13 @@
     </row>
     <row r="153" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E153" s="18"/>
       <c r="F153" s="17">
@@ -3777,13 +3775,13 @@
     </row>
     <row r="154" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E154" s="17"/>
       <c r="F154" s="17">
@@ -3797,13 +3795,13 @@
     </row>
     <row r="155" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -3813,13 +3811,13 @@
     </row>
     <row r="156" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -3827,13 +3825,13 @@
     </row>
     <row r="157" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -3841,13 +3839,13 @@
     </row>
     <row r="158" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D158" s="21" t="s">
         <v>216</v>
-      </c>
-      <c r="C158" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D158" s="21" t="s">
-        <v>223</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -3855,13 +3853,13 @@
     </row>
     <row r="159" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -3869,13 +3867,13 @@
     </row>
     <row r="160" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -3883,13 +3881,13 @@
     </row>
     <row r="161" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -3897,13 +3895,13 @@
     </row>
     <row r="162" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -3911,13 +3909,13 @@
     </row>
     <row r="163" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -3925,13 +3923,13 @@
     </row>
     <row r="164" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -3939,13 +3937,13 @@
     </row>
     <row r="165" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -3953,13 +3951,13 @@
     </row>
     <row r="166" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="16">
@@ -3971,13 +3969,13 @@
     </row>
     <row r="167" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="16"/>
@@ -3985,13 +3983,13 @@
     </row>
     <row r="168" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="16">
@@ -4003,13 +4001,13 @@
     </row>
     <row r="169" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="16"/>
@@ -4017,13 +4015,13 @@
     </row>
     <row r="170" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -4031,13 +4029,13 @@
     </row>
     <row r="171" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -4045,13 +4043,13 @@
     </row>
     <row r="172" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -4059,13 +4057,13 @@
     </row>
     <row r="173" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -4073,13 +4071,13 @@
     </row>
     <row r="174" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -4087,13 +4085,13 @@
     </row>
     <row r="175" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -4101,13 +4099,13 @@
     </row>
     <row r="176" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E176" s="16">
         <v>0.37</v>
@@ -4119,13 +4117,13 @@
     </row>
     <row r="177" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E177" s="19"/>
       <c r="F177" s="15">
@@ -4137,13 +4135,13 @@
     </row>
     <row r="178" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -4151,13 +4149,13 @@
     </row>
     <row r="179" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -4165,13 +4163,13 @@
     </row>
     <row r="180" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -4179,13 +4177,13 @@
     </row>
     <row r="181" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D181" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="C181" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D181" s="21" t="s">
-        <v>224</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -4193,13 +4191,13 @@
     </row>
     <row r="182" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -4209,13 +4207,13 @@
     </row>
     <row r="183" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D183" s="21" t="s">
-        <v>227</v>
+        <v>176</v>
+      </c>
+      <c r="D183" s="31" t="s">
+        <v>224</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -4225,13 +4223,13 @@
     </row>
     <row r="184" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -4241,13 +4239,13 @@
     </row>
     <row r="185" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B185" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -4257,13 +4255,13 @@
     </row>
     <row r="186" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B186" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D186" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="C186" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D186" s="21" t="s">
-        <v>224</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -4273,13 +4271,13 @@
     </row>
     <row r="187" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B187" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D187" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -4289,13 +4287,13 @@
     </row>
     <row r="188" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B188" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E188" s="18"/>
       <c r="F188" s="17">
@@ -4309,13 +4307,13 @@
     </row>
     <row r="189" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B189" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -4325,13 +4323,13 @@
     </row>
     <row r="190" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
@@ -4341,13 +4339,13 @@
     </row>
     <row r="191" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D191" s="21" t="s">
-        <v>227</v>
+        <v>184</v>
+      </c>
+      <c r="D191" s="31" t="s">
+        <v>224</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -4357,13 +4355,13 @@
     </row>
     <row r="192" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D192" s="21" t="s">
-        <v>227</v>
+        <v>185</v>
+      </c>
+      <c r="D192" s="31" t="s">
+        <v>224</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -4371,13 +4369,13 @@
     </row>
     <row r="193" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B193" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -4385,13 +4383,13 @@
     </row>
     <row r="194" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B194" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E194" s="19"/>
       <c r="F194" s="19"/>
@@ -4399,13 +4397,13 @@
     </row>
     <row r="195" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B195" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C195" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D195" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="C195" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D195" s="21" t="s">
-        <v>224</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -4413,13 +4411,13 @@
     </row>
     <row r="196" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B196" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
@@ -4427,13 +4425,13 @@
     </row>
     <row r="197" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B197" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -4441,13 +4439,13 @@
     </row>
     <row r="198" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B198" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D198" s="21" t="s">
-        <v>227</v>
+        <v>191</v>
+      </c>
+      <c r="D198" s="31" t="s">
+        <v>224</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -4455,13 +4453,13 @@
     </row>
     <row r="199" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B199" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E199" s="15">
         <v>0.4899</v>
@@ -4475,13 +4473,13 @@
     </row>
     <row r="200" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B200" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -4489,13 +4487,13 @@
     </row>
     <row r="201" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B201" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="16">
@@ -4507,13 +4505,13 @@
     </row>
     <row r="202" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B202" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="D202" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="16"/>
@@ -4521,13 +4519,13 @@
     </row>
     <row r="203" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B203" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="16"/>
@@ -4535,13 +4533,13 @@
     </row>
     <row r="204" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B204" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="16"/>
@@ -4549,13 +4547,13 @@
     </row>
     <row r="205" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B205" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="16">
@@ -4567,13 +4565,13 @@
     </row>
     <row r="206" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B206" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
@@ -4581,13 +4579,13 @@
     </row>
     <row r="207" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B207" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
@@ -4595,13 +4593,13 @@
     </row>
     <row r="208" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B208" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E208" s="16">
         <v>0.12</v>
@@ -4615,13 +4613,13 @@
     </row>
     <row r="209" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B209" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
@@ -4631,13 +4629,13 @@
     </row>
     <row r="210" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B210" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
@@ -4647,13 +4645,13 @@
     </row>
     <row r="211" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B211" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
@@ -4663,13 +4661,13 @@
     </row>
     <row r="212" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B212" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
@@ -4689,7 +4687,7 @@
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B214" s="26" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -4911,15 +4909,15 @@
     </row>
     <row r="260" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H260" s="6"/>
-      <c r="I260" s="31"/>
+      <c r="I260" s="33"/>
     </row>
     <row r="261" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H261" s="6"/>
-      <c r="I261" s="31"/>
+      <c r="I261" s="33"/>
     </row>
     <row r="262" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H262" s="6"/>
-      <c r="I262" s="31"/>
+      <c r="I262" s="33"/>
     </row>
     <row r="263" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H263" s="6"/>
@@ -4975,11 +4973,11 @@
     </row>
     <row r="276" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H276" s="9"/>
-      <c r="I276" s="31"/>
+      <c r="I276" s="33"/>
     </row>
     <row r="277" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H277" s="9"/>
-      <c r="I277" s="31"/>
+      <c r="I277" s="33"/>
     </row>
     <row r="278" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H278" s="4"/>
@@ -4998,7 +4996,6 @@
       <c r="I281" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F212" xr:uid="{45554874-2BC7-4AF4-A923-6AAFB12BF826}"/>
   <mergeCells count="10">
     <mergeCell ref="H83:H85"/>
     <mergeCell ref="I83:I85"/>

--- a/covid-19-teacher-vaccination.xlsx
+++ b/covid-19-teacher-vaccination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolcavallari/Github/Assignments fall 21:22/Final-Work-Data-Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E405B041-E3EF-C447-A2A2-F24406BFAE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8779E951-E5BF-FF43-B44D-6424CAD51915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" xr2:uid="{5C5816EC-52B9-4D8E-9C2A-00E2AD07D3E9}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$F$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$I$212</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="233">
   <si>
     <t>Country</t>
   </si>
@@ -725,6 +725,9 @@
   </si>
   <si>
     <t>Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1214,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45554874-2BC7-4AF4-A923-6AAFB12BF826}">
   <dimension ref="B2:I281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2142,7 +2145,7 @@
         <v>50</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
